--- a/biology/Médecine/Giphar/Giphar.xlsx
+++ b/biology/Médecine/Giphar/Giphar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giphar (Groupement Indépendant de Pharmaciens indépendants) est un groupement de pharmaciens d'officine français créé en 1968. Il est représenté par un réseau de 1 250 pharmacies sous enseigne (Pharmacien Giphar), réparties en douze inter-groupements régionaux et 130 groupements locaux.
 Giphar Groupe (anciennement Sogiphar) est une structure adossée au groupement Giphar. C’est une coopérative au service exclusif des pharmaciens Giphar. Elle gère quatre sites logistiques, situés à Grandvilliers, Castelnau-le-Lez,  Angers, Dijon et assure des activités diverses : 
@@ -517,7 +529,9 @@
           <t>Principales structures Giphar</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mouvement National des Pharmaciens Giphar compte 1 250 pharmacies de toute taille, réparties sur la France entière et représentatives de la structure pharmaceutique française. Pour adhérer au groupement Giphar, il convient d'être Pharmacien titulaire d'une officine, inscrit à la section A de l’ordre des pharmaciens, d'adhérer à un groupement local Giphar et d’appartenir à un Inter-groupement Régional.
 Chaque Pharmacie détient le statut d’associé au sein de Giphar, un outil économique regroupant 1 250 associés, chacun disposant d'une voix. Ces 1 250 pharmacies sont réparties en 130 groupements locaux. Chaque groupement rassemble les pharmaciens d'une même région, selon des statuts et des règlements propres à chacun, tout en respectant les statuts nationaux. Chacun de ces groupements possède sa propre personnalité morale, distincte du Mouvement National des Pharmaciens Giphar.
@@ -573,7 +587,9 @@
           <t>Giphar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Giphar est une coopérative, outil économique et logistique au service exclusif des pharmaciens Giphar. Créée en 1975, elle remplit une large mission de centrale d'achat, centrale de référencement, dépositaire pharmaceutique, grossiste répartiteur, grossiste vétérinaire et fabricant de produits à la marque. Elle assure une prestation logistique et de gestion du back office des associés leur permettant de gagner du temps et mener à bien leurs missions d’accompagnement de leur patientèle.
 C'est une société à Directoire et Conseil de Surveillance au capital variable de 2 527 056 euros qui gère plus de 12 000 références. Elle représente 1 250 actionnaires et réalise un flux d'affaires de plus de 600 millions d'euros (hors référencement) dont 13 millions d'euros avec ses propres produits.
@@ -608,9 +624,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le groupement Giphar naît en 1968 de la volonté de Édouard Le Joncour, Jacques Bossard et Viviane Le Noir, pharmaciens de Brest, Lorient et Rennes, de donner une dynamique de groupe à l’exercice pharmaceutique. D’abord Groupement d’Intérêt Pharmaceutique Rennais, puis Groupements Interpharmaceutiques, le groupement porte actuellement le nom de Mouvement national des pharmaciens Giphar.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupement Giphar naît en 1968 de la volonté de Édouard Le Joncour, Jacques Bossard et Viviane Le Noir, pharmaciens de Brest, Lorient et Rennes, de donner une dynamique de groupe à l’exercice pharmaceutique. D’abord Groupement d’Intérêt Pharmaceutique Rennais, puis Groupements Interpharmaceutiques, le groupement porte actuellement le nom de Mouvement national des pharmaciens Giphar.
 Une Charte est adoptée en 1971 qui décline tous les fondements du groupement : services, amitié, coopération du groupe, discipline librement consentie et communauté d’idées et d’actions dans un cadre régional et national.
 En 1973, le Conseil national des groupements pharmaceutiques de France – Giphar vote ses statuts à Lyon. Sept fondateurs participent à cette création : V. Lenoir, M. Cren, J. Bossard, E. Le Joncour, J-L. Hamard, M. Theallet et J-C. Kimmel. Le siège est alors fixé à Brest. L'année suivante est créé le congrès annuel Giphar.
 Le 31 mai 1974 est fondée la coopérative Sogiphar au congrès de Vittel. Sogiphar s’installe en 1980 à Grandvilliers. En 1986, le minitel devenant un moyen de communication, Giphartel est lancé.
@@ -639,8 +657,7 @@
 En janvier 2023, la coopérative ouvre une 4ième plateforme logistique à Dijon afin de mieux mailler le territoire national et de développer un service toujours plus performant aux adhérents.
 Cette année marque aussi la refonte du système d’adhésion avec la possibilité pour chaque adhérent de choisir parmi 3 niveaux d’adhésion et donc d’offres et de services.
 Forte de ses différents statuts la coopérative Giphar permet à ses adhérents, partout en France, de commander en une seule fois 90% des besoins pharmaceutiques aux meilleures conditions commerciales et de les regrouper tous en une seule livraison.
-Présidents Giphar
-Présidents Sogiphar</t>
+</t>
         </is>
       </c>
     </row>
